--- a/pred_ohlcv/54_21/2020-01-15 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 LUNA ohlcv.xlsx
@@ -2862,7 +2862,7 @@
         <v>109482.58196011</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-372497.06357806</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-367362.90217806</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-370906.74147806</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-370906.74147806</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-367878.95513488</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-370813.41563488</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-370813.41563488</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-370813.41563488</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-370813.41563488</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-370813.41563488</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-351538.16323488</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-395599.3627246401</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-399436.3300246401</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-396118.8039246401</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-402113.3118246401</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-399036.0350246402</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-399036.0350246402</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-402816.2036246401</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-401800.4149246402</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-419068.4898246402</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-423169.4054246402</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-428739.8125246402</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-449544.1222246402</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-433757.3015246402</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-433757.3015246402</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-433757.3015246402</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-433772.1735246401</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-437692.4542246401</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-432637.9572246401</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-445907.4056246401</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-436359.6296246401</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-436359.6296246401</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-441794.3495246401</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-438836.0562246401</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-442911.3457246401</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-334101.1488246401</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-331754.6144246401</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-242320.39462464</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-248668.18972464</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-252417.80652464</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-246614.69392464</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-237774.82252464</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-244723.55182464</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-248463.04612464</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-258174.42982464</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-264825.26892464</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-259380.96582464</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-259380.96582464</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-266314.22102464</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-271365.38342464</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-274135.45162464</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-269303.93552464</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-273614.05342464</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-265598.04482464</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-207603.69452464</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-151037.94702464</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-158680.43662464</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-170278.16952464</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-178629.89692464</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-175855.03292464</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-201318.67702464</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-207203.13192464</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-223059.81802464</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-217240.51512464</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-232587.10422464</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-339267.75673232</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-335363.46693232</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-340333.30223232</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-307707.0781253699</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-307707.0781253699</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-311055.0868253699</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-345558.9098150298</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-345558.9098150298</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-341942.1096150298</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-347364.8627150298</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-353424.4659150298</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-353424.4659150298</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-355465.2672150298</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-421753.6931150298</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-415979.4766150299</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-418752.4986150299</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-427102.6312150299</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-422764.7164150298</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-422764.7164150298</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-427003.4366150298</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-420580.4293150298</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-418416.8065150298</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-521693.3925150298</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 LUNA ohlcv.xlsx
@@ -2862,7 +2862,7 @@
         <v>109482.58196011</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-370906.74147806</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-367878.95513488</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-370813.41563488</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-396118.8039246401</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-402113.3118246401</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-399036.0350246402</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-399036.0350246402</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-402816.2036246401</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-401800.4149246402</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-419068.4898246402</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-423169.4054246402</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-428739.8125246402</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-449544.1222246402</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-433757.3015246402</v>
       </c>
       <c r="H874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-433757.3015246402</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-433772.1735246401</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-437692.4542246401</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-432637.9572246401</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-445907.4056246401</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-436359.6296246401</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-436359.6296246401</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-441794.3495246401</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-438836.0562246401</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-442911.3457246401</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-242320.39462464</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-248668.18972464</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-252417.80652464</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-237774.82252464</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-248463.04612464</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-258174.42982464</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-264825.26892464</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-259380.96582464</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-259380.96582464</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-266314.22102464</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-271365.38342464</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-274135.45162464</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-269303.93552464</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-273614.05342464</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-265598.04482464</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-207603.69452464</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-151037.94702464</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-158680.43662464</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-170278.16952464</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-178629.89692464</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-175855.03292464</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-201318.67702464</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-207203.13192464</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-223059.81802464</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-217240.51512464</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-232587.10422464</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-339267.75673232</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-335363.46693232</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-340333.30223232</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-307707.0781253699</v>
       </c>
       <c r="H1167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-307707.0781253699</v>
       </c>
       <c r="H1168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-311055.0868253699</v>
       </c>
       <c r="H1169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-345558.9098150298</v>
       </c>
       <c r="H1191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-345558.9098150298</v>
       </c>
       <c r="H1192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-341942.1096150298</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-347364.8627150298</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-353424.4659150298</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-353424.4659150298</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-355465.2672150298</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-421753.6931150298</v>
       </c>
       <c r="H1231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-415979.4766150299</v>
       </c>
       <c r="H1232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-418752.4986150299</v>
       </c>
       <c r="H1233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-427102.6312150299</v>
       </c>
       <c r="H1234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-422764.7164150298</v>
       </c>
       <c r="H1235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-422764.7164150298</v>
       </c>
       <c r="H1236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-427003.4366150298</v>
       </c>
       <c r="H1237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-420580.4293150298</v>
       </c>
       <c r="H1238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-418416.8065150298</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-521693.3925150298</v>
       </c>
       <c r="H1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
